--- a/data/Ausgrid average electricity consumption by LGA 202223 excel.xlsx
+++ b/data/Ausgrid average electricity consumption by LGA 202223 excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\00 - System Planning\04 - DM\Work\30 Energy Use\LGA Reports\FY23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamwatanabe/Desktop/R_stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA6AEBD-247B-4CE5-91C3-140140DD781C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF10FE9F-F657-7C4F-AF94-6E64D3ED21CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="791" xr2:uid="{C60A34E2-DF65-4C9C-A361-29A669925435}"/>
+    <workbookView xWindow="5920" yWindow="860" windowWidth="38620" windowHeight="21220" tabRatio="791" xr2:uid="{C60A34E2-DF65-4C9C-A361-29A669925435}"/>
   </bookViews>
   <sheets>
     <sheet name="Report 21-22" sheetId="1" r:id="rId1"/>
@@ -314,10 +314,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -583,8 +583,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -595,60 +595,60 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -661,9 +661,9 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -673,25 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -716,6 +698,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,6 +740,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1173,121 +1173,121 @@
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="51" customWidth="1"/>
-    <col min="10" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="51" customWidth="1"/>
+    <col min="10" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="16" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" customWidth="1"/>
+    <col min="20" max="20" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:21" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:21" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="82" t="s">
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="65" t="s">
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="65" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="66"/>
+      <c r="Q3" s="60"/>
       <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="85" t="s">
+    <row r="4" spans="1:21" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="74" t="s">
+      <c r="H4" s="83"/>
+      <c r="I4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="74" t="s">
+      <c r="J4" s="69"/>
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="84" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="86"/>
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1315,14 +1315,14 @@
       <c r="L5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="60"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M5" s="71"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="85"/>
+    </row>
+    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>25</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="26"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
@@ -1438,7 +1438,7 @@
       <c r="T7" s="10"/>
       <c r="U7" s="26"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="3" t="s">
         <v>27</v>
@@ -1495,7 +1495,7 @@
       <c r="T8" s="10"/>
       <c r="U8" s="26"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="3" t="s">
         <v>28</v>
@@ -1552,7 +1552,7 @@
       <c r="T9" s="10"/>
       <c r="U9" s="26"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -1609,7 +1609,7 @@
       <c r="T10" s="10"/>
       <c r="U10" s="26"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="3" t="s">
         <v>30</v>
@@ -1666,7 +1666,7 @@
       <c r="T11" s="10"/>
       <c r="U11" s="26"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
       <c r="B12" s="3" t="s">
         <v>31</v>
@@ -1723,7 +1723,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="26"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
       <c r="B13" s="3" t="s">
         <v>32</v>
@@ -1780,7 +1780,7 @@
       <c r="T13" s="10"/>
       <c r="U13" s="26"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
       <c r="B14" s="3" t="s">
         <v>33</v>
@@ -1837,7 +1837,7 @@
       <c r="T14" s="10"/>
       <c r="U14" s="26"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="56"/>
       <c r="B15" s="3" t="s">
         <v>34</v>
@@ -1894,7 +1894,7 @@
       <c r="T15" s="10"/>
       <c r="U15" s="26"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
       <c r="B16" s="3" t="s">
         <v>35</v>
@@ -1951,7 +1951,7 @@
       <c r="T16" s="10"/>
       <c r="U16" s="26"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -2008,7 +2008,7 @@
       <c r="T17" s="10"/>
       <c r="U17" s="26"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
       <c r="B18" s="3" t="s">
         <v>37</v>
@@ -2065,7 +2065,7 @@
       <c r="T18" s="10"/>
       <c r="U18" s="26"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
       <c r="B19" s="3" t="s">
         <v>38</v>
@@ -2122,7 +2122,7 @@
       <c r="T19" s="10"/>
       <c r="U19" s="26"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="3" t="s">
         <v>39</v>
@@ -2179,7 +2179,7 @@
       <c r="T20" s="10"/>
       <c r="U20" s="26"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="3" t="s">
         <v>40</v>
@@ -2236,7 +2236,7 @@
       <c r="T21" s="10"/>
       <c r="U21" s="26"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
       <c r="B22" s="3" t="s">
         <v>41</v>
@@ -2293,7 +2293,7 @@
       <c r="T22" s="10"/>
       <c r="U22" s="26"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="56"/>
       <c r="B23" s="3" t="s">
         <v>42</v>
@@ -2350,7 +2350,7 @@
       <c r="T23" s="10"/>
       <c r="U23" s="26"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
       <c r="B24" s="3" t="s">
         <v>43</v>
@@ -2407,7 +2407,7 @@
       <c r="T24" s="10"/>
       <c r="U24" s="26"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
       <c r="B25" s="3" t="s">
         <v>44</v>
@@ -2464,7 +2464,7 @@
       <c r="T25" s="10"/>
       <c r="U25" s="26"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="3" t="s">
         <v>45</v>
@@ -2521,7 +2521,7 @@
       <c r="T26" s="10"/>
       <c r="U26" s="26"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="3" t="s">
         <v>46</v>
@@ -2578,7 +2578,7 @@
       <c r="T27" s="10"/>
       <c r="U27" s="26"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="3" t="s">
         <v>47</v>
@@ -2635,7 +2635,7 @@
       <c r="T28" s="10"/>
       <c r="U28" s="26"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="17" t="s">
         <v>48</v>
@@ -2692,7 +2692,7 @@
       <c r="T29" s="10"/>
       <c r="U29" s="26"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="57"/>
       <c r="B30" s="23" t="s">
         <v>49</v>
@@ -2721,8 +2721,8 @@
       <c r="T30" s="10"/>
       <c r="U30" s="26"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="61" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -2783,8 +2783,8 @@
       <c r="W31" s="27"/>
       <c r="X31" s="16"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="62"/>
       <c r="B32" s="28" t="s">
         <v>52</v>
       </c>
@@ -2843,8 +2843,8 @@
       <c r="W32" s="27"/>
       <c r="X32" s="16"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
       <c r="B33" s="28" t="s">
         <v>53</v>
       </c>
@@ -2903,8 +2903,8 @@
       <c r="W33" s="27"/>
       <c r="X33" s="16"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="62"/>
       <c r="B34" s="28" t="s">
         <v>54</v>
       </c>
@@ -2960,8 +2960,8 @@
       <c r="T34" s="10"/>
       <c r="U34" s="26"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="62"/>
       <c r="B35" s="28" t="s">
         <v>55</v>
       </c>
@@ -3017,8 +3017,8 @@
       <c r="T35" s="10"/>
       <c r="U35" s="26"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="62"/>
       <c r="B36" s="28" t="s">
         <v>56</v>
       </c>
@@ -3074,8 +3074,8 @@
       <c r="T36" s="10"/>
       <c r="U36" s="26"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="62"/>
       <c r="B37" s="28" t="s">
         <v>57</v>
       </c>
@@ -3131,8 +3131,8 @@
       <c r="T37" s="10"/>
       <c r="U37" s="26"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="62"/>
       <c r="B38" s="28" t="s">
         <v>58</v>
       </c>
@@ -3188,8 +3188,8 @@
       <c r="T38" s="10"/>
       <c r="U38" s="26"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
       <c r="B39" s="29" t="s">
         <v>59</v>
       </c>
@@ -3245,8 +3245,8 @@
       <c r="T39" s="10"/>
       <c r="U39" s="26"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="62"/>
       <c r="B40" s="17" t="s">
         <v>48</v>
       </c>
@@ -3302,8 +3302,8 @@
       <c r="T40" s="10"/>
       <c r="U40" s="26"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="63"/>
       <c r="B41" s="17" t="s">
         <v>49</v>
       </c>
@@ -3331,11 +3331,11 @@
       <c r="T41" s="10"/>
       <c r="U41" s="26"/>
     </row>
-    <row r="42" spans="1:24" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70" t="s">
+    <row r="42" spans="1:24" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="71"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="32"/>
       <c r="D42" s="33">
         <v>749.81054000044242</v>
@@ -3376,11 +3376,11 @@
       <c r="T42" s="36"/>
       <c r="U42" s="26"/>
     </row>
-    <row r="43" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="72" t="s">
+    <row r="43" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="73"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="38">
         <v>15.104734923304306</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="T43" s="42"/>
       <c r="U43" s="26"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="43" t="s">
         <v>61</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="P44" s="45"/>
       <c r="Q44" s="45"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="47" t="s">
         <v>62</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="Q45" s="46"/>
       <c r="R45" s="47"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="48" t="s">
         <v>63</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="Q46" s="46"/>
       <c r="R46" s="47"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="48" t="s">
         <v>64</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="Q47" s="46"/>
       <c r="R47" s="47"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
         <v>65</v>
       </c>
@@ -3531,13 +3531,12 @@
       <c r="K48" s="47"/>
       <c r="L48" s="47"/>
       <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
       <c r="Q48" s="46"/>
       <c r="R48" s="47"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="49" t="s">
         <v>66</v>
       </c>
@@ -3558,7 +3557,7 @@
       <c r="Q49" s="47"/>
       <c r="R49" s="47"/>
     </row>
-    <row r="50" spans="1:18" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="49"/>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
@@ -3577,7 +3576,7 @@
       <c r="Q50" s="47"/>
       <c r="R50" s="47"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="43" t="s">
         <v>67</v>
       </c>
@@ -3598,7 +3597,7 @@
       <c r="Q51" s="47"/>
       <c r="R51" s="47"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="47" t="s">
         <v>82</v>
       </c>
@@ -3619,7 +3618,7 @@
       <c r="Q52" s="47"/>
       <c r="R52" s="47"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="47" t="s">
         <v>68</v>
       </c>
@@ -3640,7 +3639,7 @@
       <c r="Q53" s="47"/>
       <c r="R53" s="47"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
         <v>69</v>
       </c>
@@ -3661,7 +3660,7 @@
       <c r="Q54" s="47"/>
       <c r="R54" s="47"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="48" t="s">
         <v>70</v>
       </c>
@@ -3682,7 +3681,7 @@
       <c r="Q55" s="47"/>
       <c r="R55" s="47"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="48" t="s">
         <v>71</v>
       </c>
@@ -3702,8 +3701,9 @@
       <c r="P56" s="47"/>
       <c r="Q56" s="47"/>
       <c r="R56" s="47"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T56" s="46"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="48" t="s">
         <v>72</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="Q57" s="47"/>
       <c r="R57" s="47"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="49" t="s">
         <v>73</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="Q58" s="47"/>
       <c r="R58" s="47"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="47" t="s">
         <v>74</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="Q59" s="47"/>
       <c r="R59" s="47"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="47" t="s">
         <v>75</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="Q60" s="47"/>
       <c r="R60" s="47"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="50" t="s">
         <v>76</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="Q61" s="47"/>
       <c r="R61" s="47"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="47" t="s">
         <v>77</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="Q62" s="47"/>
       <c r="R62" s="47"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="47" t="s">
         <v>84</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="Q63" s="47"/>
       <c r="R63" s="47"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="48" t="s">
         <v>78</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="Q64" s="47"/>
       <c r="R64" s="47"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="47" t="s">
         <v>83</v>
       </c>
@@ -3892,72 +3892,77 @@
       <c r="Q65" s="47"/>
       <c r="R65" s="47"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="47" t="s">
         <v>79</v>
       </c>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="47" t="s">
         <v>80</v>
       </c>
       <c r="I67"/>
     </row>
-    <row r="68" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="47"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="47" t="s">
         <v>81</v>
       </c>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I80"/>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I81"/>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I82"/>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I83"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A31:A41"/>
@@ -3973,11 +3978,6 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <conditionalFormatting sqref="V31:W33">
     <cfRule type="colorScale" priority="1">
@@ -4276,9 +4276,29 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16F0C8D1-9ADD-4CA7-A9B9-342E9D2BDBA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16F0C8D1-9ADD-4CA7-A9B9-342E9D2BDBA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="17d62298-cacb-43bc-8e0b-56e1bcfb4757"/>
+    <ds:schemaRef ds:uri="5c47e6c9-899b-43cf-8a51-4285378cfd03"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{354E40C4-619B-4025-9E90-9649BDFA36CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{354E40C4-619B-4025-9E90-9649BDFA36CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>